--- a/deuChatbot/research_result/table_to_json(2000_100).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F325"/>
+  <dimension ref="A1:F425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22227,6 +22227,6803 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 구성, 준비물, 주제, 화지 크기 및 시험 시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 모든 중요한 요소를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.8211145400008626</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야로 나뉘어 진행되며, 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 응시하게 됩니다. 
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절이 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절이 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+각 종목은 700점 중에서 70%의 점수를 차지하며, 이는 전체 실기시험 점수의 중요한 부분을 구성합니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기종목과 준비물, 주제 등을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8309840339235705</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 중에서 선택해야 합니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B 각각에서 1개씩을 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+- **화지크기**:
+  - 기초디자인: 켄트지3절
+  - 사고의 전환: 켄트지2절
+- **시간**: 각 실기종목 모두 5시간 동안 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구의 인정대회 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "각종국제대회"와 같은 표현이 더 자연스럽게 연결될 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.885152620511324</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 모집종목별 인정대회에 대한 정보를 제공해 드리겠습니다.
+배드민턴(남)의 경우, 다음과 같은 대회들이 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회들이 인정됩니다:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 실력을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용, 시험 당일의 절차에 대한 설명이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 주제 선택 및 연결 방법에 대한 설명이 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7836753227426602</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 만듭니다. 예시 주제들로는 다음과 같은 것들이 있습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+실제 시험에서는 당일에 이 주제들 중에서 각각 하나씩을 추첨하여 연결된 주제를 만듭니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확히 반영하고 있습니다. 그러나 나군 실기/실적 전형에서의 출결 점수 반영에 대한 추가 정보는 사실이지만, 원문에서 요구하는 질문에 대한 직접적인 답변은 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 나군 실기/실적 전형에 대한 정보가 추가되어 있어 원문과의 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 학생부 교과 전형과 관련된 질문에 대해 매우 관련성이 높습니다. 출결 점수의 반영 여부에 대한 명확한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 실기/실적 전형에 대한 추가 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수 반영에 대한 정확한 정보를 제공하고 있습니다. 그러나 원문에서 요구하는 정보에 대한 직접적인 답변이 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높습니다. 그러나 나군 실기/실적 전형에 대한 정보가 추가되어 있어 약간의 의미적 불일치가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6207617506371264</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 결석일수에 따른 반영점수가 있습니다. 그러나 학생부교과 전형에서 출결 점수가 직접적으로 반영되는 것은 아닙니다.
+출결 점수는 다음과 같이 반영됩니다:
+- 0~2일 결석: 120점
+- 3~6일 결석: 90점
+- 7~12일 결석: 60점
+- 13~20일 결석: 30점
+- 21일 이상 결석: 0점
+따라서, 학생부교과 전형에서는 출결 점수가 직접적으로 반영되지 않고, 나군 실기/실적(경기실적우수자전형)에서는 출결 상황이 특정 점수로 변환되어 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "2024년"이라는 추가 정보는 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에서는 영어영문학과가 다군 일반학생 전형을 통해 28명을 선발한다고 명확히 언급하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서 제공된 정보와는 정반대의 주장을 하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학과의 모집 인원에 대한 언급만 하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5303382711911002</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 직접적으로 나와 있지 않습니다. 다른 학과들의 모집인원만 기재되어 있습니다.
+더 정확한 답변을 위해서는 해당 대학의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수를 110명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 22명과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련이 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.7161996829018502</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 잘못된 정보로 제공하고 있습니다. 원본 텍스트의 점수와는 전혀 다른 점수 체계를 제시하고 있으며, 등급의 수 또한 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 점수와 생성된 응답의 점수 체계가 완전히 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 정보를 제공하고 있지만, 원본 텍스트와는 관련이 없는 점수 체계를 사용하고 있습니다. 따라서 관련성은 낮지만, 주제는 여전히 수능 영어와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 점수 체계가 다르기 때문에 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 점수와 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 정보를 제공하지만, 원본 텍스트와의 불일치로 인해 의미적으로 적절하지 않습니다. 주제는 맞지만, 내용이 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 신뢰성이 떨어지기 때문에 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.8047415971533785</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 6.35점 이상
+- 등급 2: 5.85~6.34점 
+- 등급 3: 5.35~5.84점
+- 등급 4: 4.85~5.34점
+- 등급 5: 4.35~4.84점
+- 등급 6: 3.85~4.34점
+- 등급 7: 3.35~3.84점
+- 등급 8: 2.85~3.34점
+- 등급 9: 2.35~2.84점
+- 등급 10: 1.85~2.34점
+- 등급 11: 1.35~1.84점
+- 등급 12: 0.85~1.34점
+- 등급 13: 0.35~0.84점
+- 등급 14: 0.00~0.34점
+이 점수는 각 등급별로 변환된 점수이며, 실제 수능 영어 점수가 해당 등급에 속하는 범위 내일 때 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 내용 불일치로 인해 논리적 흐름이 약해집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 원문과의 사실적 불일치가 심각합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 원문과 상충하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 원문의 맥락과 전혀 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6844649817371871</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>6년 과정의 경우, 예술고 학생이 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 거주한 자라면 지원 가능합니다. 그러나 12년 과정의 경우, 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수한 자만 지원할 수 있습니다.
+제출서류는 다음과 같습니다:
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+따라서 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고 거주한 자라면, 나군 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.9191365435484607</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가적으로 제공된 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가적인 비율 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 비율 정보도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 원본 텍스트와의 일관성 및 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.7454428761433911</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+출결 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보(디자인조형학과의 세부 전공)를 포함하고 있어 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 요일에 대한 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 추가된 정보도 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5215745689560376</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "응용화학과에 대한 구체적인 수능 최저기준이 없다고는 볼 수 없습니다."라는 문장을 포함하고 있는데, 이는 원문에서 명시된 "수능 최저 학력 기준은 없습니다."와 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 모순되는 내용을 포함하고 있습니다. 원문은 수능 최저 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 이를 부정하는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저 기준에 대한 정보를 제공하려고 하지만, 원문에서 명시된 내용과는 다르게 해석하고 있습니다. 따라서 관련성은 있지만, 원문과의 일치성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하여 적절하지 않은 부분이 많습니다. 원문이 명확히 수능 최저 기준이 없다고 말하고 있는데, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5170634740655957</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서 내에서는 명시되어 있지 않습니다. 다른 학과들의 경우 '수능최저기준 없음'이라고 되어 있지만, 응용화학과에 대한 구체적인 수능 최저기준이 없다고는 볼 수 없습니다.
+문서에서 확인할 수 있는 정보를 바탕으로 추론해보면, 일반적으로 수능 최저기준이 명시되지 않은 경우 해당 학교나 학과의 특성에 따라 특정 점수 이상을 요구하는 것이 일반적입니다. 그러나 정확한 수능 최저기준은 동의대학교 입학처 웹사이트를 방문하여 확인하거나, 직접 연락하여 문의하시는 것이 가장 정확한 방법일 것입니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi. deu.ac.kr/main.do)로 접속해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 따르면 신설된 학과는 심리학과, 스마트항만물류학과, 창업투자경영학과, 라이프융합학부, 경기지도학과입니다. 그러나 생성된 응답에서는 아동학과와 금융경영학과가 신설된 학과로 언급되었으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용을 전혀 반영하지 않고 다른 학과명을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트에서 언급된 학과들과는 전혀 다른 학과를 언급하고 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 내용이 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 신설된 학과에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 일부 적절한 부분이 있지만, 전체적으로 원본 텍스트의 맥락과 맞지 않기 때문에 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.5213933501882129</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "아동학과"와 "금융경영학과"가 있습니다. 이들 학과는 2023년도에는 다른 학과명으로 운영되었으나, 2024년도에는 학과 명칭이 변경되어 신설된 것으로 보입니다.
+아동학과의 경우, 2023년도에는 "보육·가정상담학과"로 운영되었으며, 금융경영학과는 2023년도에는 "경제금융보험학과"로 명칭이 사용되었습니다. 
+따라서 동의대학교 2024학년도에 신설된 학과는 아동학과와 금융경영학과입니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 잘못 제시하고 있습니다. 원본 텍스트에서는 서류가 70%, 면접이 30%라고 명시되어 있지만, 생성된 응답에서는 서류가 60%, 면접이 40%로 잘못 기재되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본의 비율과 생성된 응답의 비율이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 전형요소 반영 비율에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전형요소 반영 비율에 대한 설명이 일관되게 이어집니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르기 때문에 정확성이 매우 낮습니다. 비율이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 잘못된 정보를 포함하고 있어 원본의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.8271784033518051</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 다음과 같은 비율로 전형요소가 반영됩니다.
+- 서류 (학생부): 60%
+- 면접: 40%
+이와 같이, 2024학년도에는 서류의 비중이 약간 줄어들고 면접의 비중이 증가하였습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 정보를 잘못 제공하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 전혀 다른 학과들이 나열되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 대한 답변을 제공하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉬운 문장으로 작성되어 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 그러나 수능 가산점에 대한 언급이 있어 일부 적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.6369121087918929</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>东义大学에서 수능 가산점을 적용하는 학과는 영화학과, 패션디자인학과, 일본학과, 영어영문학과, 문헌정보학과, 평생교육·청소년상담학과입니다.
+이들 학과에서는 수능 점수에 추가로 가산점이 적용되어 총점을 계산합니다. 각 학과별로 표준 변환 점수 합의 평균과 표준 편차가 제공되었으므로, 이는 해당 학과에서 수능 점수가 어떻게 가중치를 두고 평가되는지를 보여줍니다.
+더 자세한 정보나 다른 질문이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 제공하고 있지만, 원본 텍스트에서 명시된 "100% 반영"이라는 중요한 사실을 간과하고 있습니다. 또한, '38페이지 Ⅴ. 수능성적 반영방법'에 대한 언급이 없으므로, 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 여러 가지 평가 방법을 나열하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하므로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 "100% 반영"에 대한 언급이 없기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 항목이 독립적으로 나열되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 정확히 반영하지 않으며, 수능 성적을 100% 반영한다는 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영 방법에 대한 설명을 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미 적합성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6770523398264838</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 이 부분은 국어, 수학, 탐구 영역에서의 성적을 종합적으로 평가하는 지표로 사용됩니다.
+   - 각 모집단위별로 평균과 표준 편차를 제공하며, 이를 통해 지원자의 점수와 전체 지원자들의 점수 분포를 비교할 수 있습니다.
+2. **영어 등급**:
+   - 영어 성적은 등급으로 평가되며, 이 역시 모집단위별로 평균과 표준 편차를 제공합니다.
+   - 이를 통해 지원자의 영어 실력과 전체 지원자들의 영어 실력을 비교할 수 있습니다.
+3. **수능 4개 영역 등급**:
+   - 각 영역(국어, 수학, 탐구)의 성적을 등급으로 평가합니다.
+   - 이 역시 모집단위별로 평균과 표준 편차를 제공하여 지원자의 성적과 전체 지원자들의 성적 분포를 비교할 수 있습니다.
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 이 부분은 각 영역에서의 성적을 종합적으로 평가하는 지표로, 가산점을 포함하여 평균과 표준 편차를 제공합니다.
+   - 이를 통해 지원자의 전체 수능 성적과 전체 지원자들의 성적 분포를 비교할 수 있습니다.
+이러한 방법으로 동의대학교는 지원자의 수능 성적을 종합적으로 평가하고, 각 모집단위별로 지원자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 장소에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.882142235847356</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서 특정 모집단위가 제외되지 않았다고 주장하고 있습니다. 그러나 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 모집단위가 제외된다고 명시하고 있지만, 생성된 응답은 모든 모집단위에서 지원이 이루어진다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않고, 오히려 잘못된 정보를 포함하고 있습니다. 그러나 공식 홈페이지를 참조하라는 제안은 어느 정도 관련성이 있지만, 전체적으로는 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 괜찮지만, 내용의 정확성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 최하점인 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5564466987336654</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 특정 모집단위가 제외되지 않았습니다. 제공된 정보에 따르면, 모든 모집단위에서 수능 점수를 기준으로 지원이 이루어지며, 각 모집단위별로 수능 반영 영역 및 가산점이 다르게 적용됩니다.
+만약 특정 모집단위가 제외되었다는 정보가 있다면, 제공된 내용에서는 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 대학 관계자에게 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가 정보도 원문과 관련이 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 정확히 일치하며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.8424641841634617</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 다군 수능(일반학생전형) 전 모집단위에 대한 정보에서 "수능최저기준 없음"이라는 항목이 확인되었습니다.
+더 자세한 내용이나 추가 질문이 있으시다면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하거나 모순되는 부분이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.9050847634650832</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보도 제공하고 있어 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반한 내용입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7708053685742975</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 자세한 일정은 입학안내 홈페이지에서 확인하실 수 있습니다. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형 요소 변화에 대한 정보가 아닌 학과 명칭 변경에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 내용과 전혀 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.6297729849248023</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 주로 학과 명칭 변경과 관련된 것으로 보입니다. 구체적으로는 다음과 같은 내용들이 있습니다:
+1. **아동학과** (전년도에는 보육·가정상담학과)
+2. **금융경영학과** (전년도에는 경제금융보험학과)
+3. **경영정보학과, e비즈니스학과** (전년도에는 정보경영학부(경영정보학, e비즈니스학))
+4. **부동산자산경영학부(부동산투자학, 부동산개발경영학)** (전년도에는 부동산금융·자산경영학과)
+5. **기계공학과, 로봇자동화공학과, 자동차공학과** (전년도에는 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학))
+6. **신소재공학과, 고분자나노공학과** (전년도에는 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학))
+7. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과** (전년도에는 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학))
+8. **화학공학과, 환경공학과, 응용화학과** (전년도에는 화학환경공학부(화학공학, 환경공학, 응용화학))
+이와 같은 학과 명칭 변경은 전형 요소 변화의 일환으로 볼 수 있습니다. 더 자세한 정보는 공식 홈페이지를 참조하시거나 문의하시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않고 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.7780030878809922</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기가 70%의 비중을 차지합니다. 
+특히, 가군 실기/실적(일반학생전형)에서는 실기가 70%, 수능이 30%의 비율로 반영됩니다.
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8742783664775448</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 중 라이프융합학부의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았고, '체육학과'도 누락되었습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 있는 '체육학과'가 빠져 있고, '태권도학과'는 원본에 없는 정보입니다. 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 그러나 실기고사 일정에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일정과 대기실 안내를 포함하고 있어 어느 정도의 일관성을 유지하고 있지만, 잘못된 학과 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답에 포함된 정보는 원본 텍스트와 비교했을 때 정확하지 않습니다. '태권도학과'는 원본에 없고, '체육학과'는 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답이 매우 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원본 텍스트와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.6662461409760961</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 **레저스포츠학과**와 **태권도학과**입니다. 
+실기고사 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 16.(화)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.
+이 정보가 도움이 되셨기를 바랍니다. 추가로 궁금한 점이 있으시면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 명시된 특정 학과 목록(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)을 포함하지 않고 있습니다. 대신 모든 학과가 해당된다고 주장하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 특정 학과 목록과 일치하지 않으며, 모든 학과가 지원 가능하다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 정보로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기/실적 위주 전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 특정 학과에 대한 정보에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 모든 학과가 지원 가능하다고 주장하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.492962922011117</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '학생부종합(평생학습자전형)'은 모든 모집단위에 적용됩니다. 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자에게 해당됩니다.
+따라서, 실기/실적 위주 전형인 '학생부종합(평생학습자전형)'을 지원하려면 동의대학교의 모든 학과를 대상으로 할 수 있습니다. 예를 들어, 건축학과, 화학공학과, 의생명공학과 등 모든 학과가 해당됩니다.
+만약 특정 학과에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.8520880674046819</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이러한 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 "정확한 지원 자격 여부는 해당 대학의 모집요강을 확인해보시는 것이 좋습니다."라는 문장은 다소 모호하게 느껴질 수 있으며, 원문에서 명확히 언급된 내용을 완전히 반영하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 특수목적고등학교 출신 학생의 지원 가능성을 언급하고 있습니다. 그러나 "농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다."라는 부분은 언급되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 다룬 주제와 관련이 깊습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "네가"라는 표현이 다소 비격식적일 수 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변이 명확하게 전달됩니다. 그러나 첫 문장이 중국어로 시작하는 점이 응답의 일관성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 지원 자격에 대한 구체적인 언급이 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 첫 문장의 중국어 사용이 맥락에 맞지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중국어 문장이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.687684358076186</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，是否可以申请동义大学的一般学生招生？
+네가 특수목적 고등학교 학생이라면 동의대학교 일반학생전형으로 지원이 가능할 것 같습니다. 하지만 정확한 지원 자격 여부는 해당 대학의 모집요강을 확인해보시는 것이 좋습니다. 모집요강에는 고교 유형별 지원 자격 등 상세한 정보가 포함되어 있습니다.
+https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하여 동의대학교 일반학생전형에 대한 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특정 학과가 가장 많이 모집된다는 사실을 부정하고 있으며, 이는 원문에서 명시된 사실과 상충합니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집된다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서 언급된 특정 학과의 모집 인원에 대한 정보가 무시되고, 대신 여러 학과의 모집 상황에 대한 일반적인 설명이 제공되고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 관련이 있지만, 질문의 핵심인 '가장 많이 모집하는 학과'에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성은 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 여러 학과에 대한 설명이 포함되어 있지만, 주제 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 사실을 왜곡하고 있으며, 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 원문과의 불일치로 인해 낮은 평가를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문에서 요구하는 정보와는 다소 동떨어져 있습니다. 따라서 의미의 적절성은 보장되지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 많습니다. 그러나 주제의 일관성이 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6535830930443763</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서는 여러 학과가 모집되고 있습니다. 하지만 특정 학과를 '가장 많이' 모집한다고 단정 짓기는 어렵습니다. 각 학과별로 정원이 다르고, 일부 학과는 신설되거나 모집 중지되는 등 변화가 있을 수 있습니다.
+특히 2024학년도에는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)" 등 신설된 학과들이 추가로 모집됩니다.
+따라서 가장 많이 모집하는 학과를 단정 짓기보다는 각 학과별 정원을 확인하여 전체적인 모집 상황을 파악하는 것이 좋습니다. 더 자세한 정보는 공식 홈페이지에서 확인하시거나, 제공된 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 동의대학교 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공합니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 특정 특수목적고 출신자는 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원 가능하다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 신뢰도가 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6737711596049162</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이라면 동의대학교에서 농어촌 학생 전형으로 지원이 가능합니다. 하지만 지원 자격에 대한 세부 조건은 해당 연도의 정시모집 안내를 확인해보시는 것이 좋습니다. 예를 들어, 2024학년도에는 다음과 같은 내용이 있습니다:
+- 일반고: 지원 가능
+- 자율고: 지원 가능
+- 특수목적고:
+  - 과학고, 국제고, 외국어고: 지원 가능
+  - 예술고, 체육고: 지원 가능
+  - 마이스터고: 지원 가능
+따라서 특수목적고등학교 중에서 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등에 속하는 학교의 학생이라면 농어촌 학생 전형으로 지원할 수 있습니다. 하지만 세부적인 자격 요건과 제한 사항은 공식 안내를 통해 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 합격자 평균 성적에 대한 정보가 없다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8487274456825676</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 합격자 평균 성적은 제공된 정보로는 확인할 수 없습니다. 관련 데이터가 포함되어 있지 않아 정확한 답변을 드릴 수 없네요. 필요하다면 더 자세한 정보를 찾아보도록 하겠습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것도 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 내용을 잘 반영하고 있으며, 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 점을 정확히 전달하고 있습니다. 그러나 "데이터가 없습니다"라는 표현은 원본의 "정보가 포함되어 있지 않습니다"와 약간의 의미 차이가 있어 완전한 일치를 보이지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "데이터"라는 용어 사용이 원본의 "정보"와는 약간의 차이가 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 원본의 내용과 직접적으로 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "더 자세한 정보를 얻기 위해서는" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 그러나 "데이터가 없습니다"라는 표현이 원본의 의미를 완전히 전달하지 못할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "데이터"라는 표현이 원본의 의미와 완전히 일치하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 표현에서 약간의 차이가 있어 완전한 일치는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "데이터"라는 표현이 원본의 의미와 완전히 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.7130847049149918</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정이 추가되어 있으며, 일부 내용이 원본 텍스트와 다릅니다. 예를 들어, 최초 합격자 등록 일정이 원본에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 최초 합격자 등록 일정이 원본에 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 추가된 등록 일정이 원본과는 관련이 없으므로 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 논리적입니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히, 최초 합격자 등록 일정이 원본에 없으므로 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 원본과의 차이로 인해 일부 점수가 낮아졌습니다. 특히, 일관성과 정확성에서 점수가 떨어졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.8006300044499002</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - **일정**: 2024년 2월 2일 (금) 14:00
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+2. **최초 합격자 등록**
+   - **일정**: 2024년 2월 7일 (수) ~ 13일 (화)
+   - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+3. **충원 합격자 발표 및 등록**
+   - **1차 출합격자 발표**
+     - **일정**: 2024년 2월 14일 (수) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **1차 출합격자 등록**
+     - **일정**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 출합격자 발표**
+     - **일정**: 2024년 2월 15일 (목) 09:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **2차 출합격자 등록**
+     - **일정**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+   - **3차 출합격자 발표 및 등록**
+     - **일정**: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - **내용**: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상과 같이 합격자 발표 및 등록 일정을 알려드렸습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고, 일반적인 면접 절차와 관련된 내용을 포함하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)가 누락되어 있으며, 이는 중요한 사실입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 내용을 제공하지 않고 일반적인 정보로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 핵심 정보인 면접 일정에 대한 직접적인 언급이 부족하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 정보가 누락되어 있어 전체적으로 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 사실이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트의 핵심 정보가 누락되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.4290568524828979</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사의 일정은 일반적으로 입학사정관이 평가위원을 맡아 실시되며, 대략적인 시간은 수험생 당 10분 이내로 진행됩니다. 정확한 날짜와 시간은 나중에 공지될 예정입니다. 따라서 면접일정이 확정된 후에 해당 일정에 맞춰 방문하시면 됩니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋습니다. 그곳에서 최신 정보와 안내사항을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(웹사이트 링크 등)는 원본 텍스트에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 한의예과의 최저학력 기준이 없다는 내용을 유지하고 있습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 한의예과의 최저학력 기준에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다. 그러나 추가 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있지만, 추가적인 정보가 포함되어 있어 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가적인 정보가 포함되어 있어 약간의 의미적 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6116512041392185</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. 만약 한의예과의 최저학력 기준을 알고 싶다면, https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 동의대학교 입시 홈페이지를 확인해보세요. 해당 페이지에서는 각 전형별로 정확한 최저학력 기준이 명시되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 모든 전형에서 수능 최저학력 기준이 없음을 명확히 언급하고 있어 사실적 정확성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 충분히 제공하고 있습니다. 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 일관된 흐름을 유지하고 있어 일관성이 높습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실에 대한 왜곡이나 오류가 없습니다. 정확성이 매우 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다. 전반적인 품질이 뛰어납니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다. 의미적 적합성이 매우 높습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있습니다. 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6061168220230505</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시 모집에서는 모든 전형의 수능 최저학력 기준이 없습니다. 각 전형별로 수능 최저학력 기준이 없음을 확인할 수 있습니다. 예를 들어, "가군 수능(일반학생전형)"이나 "나군 수능(일반학생전형)" 등에서 수능 최저학력 기준은 없습니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 1차 충원합격자 발표 날짜를 잘못 기재하였고, 등록 시간에 대한 정보도 추가되었으나, 원본 텍스트와 일치하지 않는 내용이 포함되어 있습니다. 
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 특히, 1차 발표 날짜와 등록 시간에 대한 정보가 원본과 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 일부 잘못된 정보가 포함되어 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 나열하고 있으나, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 발표 날짜와 등록 시간에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.9085203822524975</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 2024년 2월 15일(목) 09:00부터 시작됩니다. 이날 이후로 3차까지의 충원합격자를 순서대로 발표합니다.
+발표 일정은 다음과 같습니다:
+- 2024년 2월 15일(목) 09:00 - 1차 충원 합격자 발표
+- 2024년 2월 15일(목) 09:00~16:00 - 1차 충원 합격자 등록
+- 2024년 2월 16일(금) 09:00 - 2차 충원 합격자 발표
+- 2024년 2월 16일(금) 09:00~16:00 - 2차 충원 합격자 등록
+- 2024년 2월 17일(토) 09:00 - 3차 충원 합격자 발표
+- 2024년 2월 17일(토) 09:00~16:00 - 3차 충원 합격자 등록
+이후에는 개별 전화 통보를 통해 최종 합격자를 안내합니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 관련된 내용을 명확히 언급하지 않았습니다. 원본 텍스트에 명시된 날짜와 시간에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 발표 일정에 대한 구체적인 내용을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 약간 저해됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보의 제공이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 정보의 부족으로 인해 명확성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.4653036250444333</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정에 대한 정보가 제공된 문서에서 명확히 언급되어 있지 않습니다. 추가합격자 발표와 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주시기 바랍니다. 해당 사이트에서는 최신의 합격자 발표 일정과 기타 중요한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집에 대한 구체적인 내용이 명시되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 구체적인 내용을 반영하지 않고 일반적인 조언을 제공하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 내용을 반영하지 않기 때문에 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 제공하고 있습니다. 원본의 내용을 정확히 반영하지 못합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답은 낮은 점수를 받으며, 사실성, 일관성, 정확성에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.486345126257262</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 특정 단과대학이나 모집단위에서 추가 모집을 하는지 여부를 확인하려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 관리자에게 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 원본 텍스트의 세부 사항(예: 모집인원, 전형요소 반영 비율 등)을 누락하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있으나, 전형의 구체적인 세부사항과는 일치하지 않는 부분이 있습니다. 예를 들어, 면접 평가에 대한 설명이 추가되었지만, 원본 텍스트의 내용과는 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트의 특정 세부사항을 다루지 않기 때문에 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5  
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항을 누락하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 생성된 응답은 유창성과 관련성에서 높은 점수를 받았지만, 사실성과 일관성에서 다소 부족하여 종합적인 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항을 포함하지 않아 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5  
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5504951321636061</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형에서는 서류평가와 면접평가가 병행되며, 각 평가 영역별로 세부적인 기준이 있습니다.
+1. **서류평가**:
+   - **고교 졸업(예정)자**: 고교 학교생활기록부 1부를 제출합니다.
+   - **검정고시 출신자**: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류 중 하나를 선택적으로 제출합니다.
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류를 제출합니다.
+2. **면접평가**:
+   - 개별면접으로 진행되며, 1인당 10분 이내입니다.
+   - 평가 영역은 "학업역량"과 "전공적합성"이며, 각 영역에 대해 공통문항을 통해 질문이 이루어집니다.
+3. **평가 기준**:
+   - **학업역량**: 문제해결능력 등 학업 역량을 평가합니다.
+   - **전공적합성**: 지원 전공(계열)과 관련된 활동 및 경험, 학업의지 등을 평가합니다.
+4. **부정적 사례**:
+   - 서류의 허위사실, 과장된 내용 기재 등이 부정적 사례로 분류됩니다.
+   - 면접에서도 지원 동기와 학업 계획을 제대로 답변하지 못하거나, 실제 경험과 괴리된 내용을 기재한 경우가 포함됩니다.
+평생학습자전형은 성인 학습자의 다양한 경험이나 역량을 종합적으로 평가하는 전형입니다. 따라서 지원자는 자신의 경력을 정확하게 기록하고, 면접에서도 진실성을 유지해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원 자격에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 사실을 누락하고 있습니다. 대신 다양한 학교 유형을 나열하고 있어, 원본의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 특정한 지원 자격을 명시하고 있지만, 생성된 응답은 여러 학교 유형을 나열하며 지원 자격을 다르게 해석하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원 자격에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 다양한 학교 유형을 나열하는 것은 관련성이 있지만, 원본의 핵심 요점을 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족합니다. 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않고 있으며, 지원 자격에 대한 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 원본의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미적 적절성 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본의 핵심 내용을 반영하지 않기 때문에 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5725487767429733</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2023년도와 2024년도에 대한 평생학습자전형의 지원 자격을 살펴보겠습니다.
+2023년도에는 다음과 같은 학교 유형이 지원 자격을 갖추고 있습니다:
+- 일반고
+- 자율고 
+- 특수목적고 (과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고)
+- 특성화고 (특성(직업) / 특성(대안))
+- 영재학교
+- 기타 (학력인정고 / 방송통신고 / 각종학교)
+- 검정고시
+- 외국고
+2024년도에는 다음과 같은 학교 유형이 지원 자격을 갖추고 있습니다:
+- 일반고
+- 자율고 
+- 특수목적고 (과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고)
+- 특성화고 (특성(직업) / 특성(대안))
+- 영재학교
+- 기타 (학력인정고 / 방송통신고 / 각종학교)
+- 검정고시
+- 외국고
+2023년도와 2024년도의 지원 자격은 동일합니다. 모든 학교 유형이 지원 자격을 갖추고 있습니다.
+더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 내용을 정확히 반영하지 못하고 있습니다. 그러나 웹사이트를 방문하라는 제안은 유용할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 실기고사에 대한 구체적인 장소가 언급되지 않았다는 점에서 일관성이 부족합니다. 원본 텍스트의 정보와 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 적절하게 반응하고 있으며, 관련 웹사이트를 제안하여 추가 정보를 찾을 수 있도록 안내하고 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 실기고사에 대한 구체적인 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부는 긍정적이지만 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 정보가 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.4499816251419534</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소는 언급되어 있지 않습니다. 실기고사를 위해 필요한 장소와 절차에 대해 더 자세히 알고 싶으시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보세요. 해당 사이트에서 입학사정관이나 관련 공지사항을 통해 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 포함하고 있습니다. 원본 텍스트에서 제공된 구체적인 날짜와 시간 정보가 누락되어 있으며, 이는 사실성에 부정적인 영향을 미칩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 실기고사에 대한 구체적인 장소나 시간에 대한 언급이 없습니다. 이는 원본 텍스트와의 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보와 조언을 제공하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다. 정보의 흐름이 다소 불명확합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정확한 정보를 제공하지 않습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 점수가 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.3765080776863192</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과의 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 체육학과의 실기고사는 학교에서 직접 실시되거나, 다른 시설이나 스포츠장 등에서 이루어질 수 있습니다. 정확한 정보를 얻으려면 해당 대학의 입학처 웹사이트나 관계자에게 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 내용을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실을 완전히 반대하는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주를 이루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본과의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6876110796670328</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>네, 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인하실 수 있습니다.
+만약 자세한 일정이나 추가적인 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "제공된 목록 내에서는 확인할 수 없습니다"라는 표현은 약간의 모호함을 포함하고 있어, 원문과의 일치도가 완벽하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 정보를 전달하고 있습니다. 다만, "제공된 목록 내에서는 확인할 수 없습니다"라는 표현이 원문과의 일관성을 약간 떨어뜨리는 요소로 작용할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수시모집 결과에 대한 정보를 찾는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 "제공된 목록 내에서는 확인할 수 없습니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 모호함이 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일치하며, 정확한 정보를 전달하고 있습니다. 다만, 표현의 차이로 인해 약간의 정확성 저하가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 정확성이 높습니다. 그러나 약간의 일관성과 유창성에서의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하고 있습니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 일부 표현이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.8810688772437104</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 목록 내에서는 확인할 수 없습니다. 관련 정보를 찾기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 자세한 내용을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 특정 전형에서 수능 응시 여부와 관계없이 지원 가능하다는 주장은 사실이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 명확히 언급된 내용을 왜곡하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 논리적 연결이 부족합니다. 원문과의 일관성이 결여되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 수능 응시가 필수라는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 괴리가 크기 때문에 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 완전히 왜곡하고 있습니다. 원문에서의 주장을 반박하는 내용이므로 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5481477875869665</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2023년과 2024년의 정보를 바탕으로, 정시모집에서 수능을 응시하지 않아도 지원 가능한 전형이 있습니다. 
+1. **학생부종합(성인학습자전형)**: 이 전형은 성인학습자를 대상으로 하며, 수능 응시 여부와 관계없이 지원 가능합니다.
+2. **학생부종합(평생학습자전형)**: 평생학습자를 위한 전형으로, 수능과 관련 없이 지원할 수 있습니다.
+3. **학생부종합(재직자전형)**: 재직자를 대상으로 하는 전형으로, 수능 응시 여부와 관계없이 지원 가능합니다.
+따라서 정시모집에서 수능을 응시하지 않아도 특정 전형에서는 지원이 가능합니다. 하지만 일반적으로는 수능 점수가 필요할 수 있으므로, 구체적인 전형의 자격 요건을 확인하시기 바랍니다. 더 자세한 정보를 원하신다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 지원 가능성을 언급하고 있지만, 생성된 응답에서는 지원 불가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성은 낮습니다. 원문에서 다루는 핵심 사항을 잘못 해석하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 내부적으로 일관된 구조를 가지고 있으며, 논리적인 흐름이 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.641897517805226</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 고등학교 졸업한지 10년이 지났다면 정시 모집에서는 지원할 수 없습니다. 
+정시 모집은 주로 고등학교 졸업생을 대상으로 하며, 경과 시간이 긴 경우 특별전형이나 학생부종합 등 다른 전형을 통해 지원해야 합니다.
+만약 자세한 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 입시 관련 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.8320478445928787</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 모집 일정은 다음과 같습니다:
+1. **2024년 1월 2일 (화)**
+   - 모집인원 확정 공고
+   - 입학안내 홈페이지 공고
+2. **2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)**
+   - 원서접수 (인터넷)
+   - 마감일은 18시까지
+3. **2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)**
+   - 서류 제출 (제출서류가 있는 경우)
+   - 마감일은 17시까지 도착
+4. **2024년 1월 16일 (화)**
+   - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)
+5. **2024년 1월 17일 (수)**
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)
+6. **2024년 2월 2일 (금) 14:00**
+   - 합격자 발표 및 등록금 납부 최초 합격자 발표
+   - 홈페이지에서 개별 조회 가능
+7. **2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)**
+   - 합격자 발표 및 등록금 납부 최초 합격자 등록
+   - 홈페이지에서 개별 조회 가능
+8. **2024년 2월 14일 (수) 09:00 ~ 16:00**
+   - 충원 합격자 발표 및 등록 (1차)
+9. **2024년 2월 15일 (목) 09:00 ~ 16:00**
+   - 충원 합격자 발표 및 등록 (2차)
+10. **2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**
+    - 충원 합격자 발표 및 등록 (3차 이후)
+각 단계별로 일정이 정해져 있으며, 홈페이지를 통해 공고와 안내가 이루어집니다. 이 정보는 동의대학교 입학관리팀에서 확인할 수 있습니다. 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.9209501490904651</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **2024년 1월 2일 (화)**
+   - 모집인원 확정 공고
+   - 입학안내 홈페이지 공고
+2. **2024년 1월 3일 (수) ~ 2024년 1월 6일 (토)**
+   - 원서접수 (인터넷)
+   - 마감일은 18시까지
+3. **2024년 1월 3일 (수) ~ 2024년 1월 12일 (금)**
+   - 서류 제출 (제출서류가 있는 경우)
+   - 마감일은 17시까지 도착
+4. **2024년 1월 16일 (화)**
+   - &lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)
+5. **2024년 1월 17일 (수)**
+   - &lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)
+6. **2024년 2월 2일 (금) 14:00**
+   - 합격자 발표 및 등록금 납부 최초 합격자 발표
+   - 홈페이지에서 개별 조회 가능
+7. **2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)**
+   - 합격자 발표 및 등록금 납부 최초 합격자 등록
+   - 홈페이지에서 개별 조회 가능
+8. **2024년 2월 14일 (수) 09:00 ~ 16:00**
+   - 충원 합격자 발표 및 등록 (1차)
+9. **2024년 2월 15일 (목) 09:00 ~ 16:00**
+   - 충원 합격자 발표 및 등록 (2차)
+10. **2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지**
+    - 충원 합격자 발표 및 등록 (3차 이후)
+각 단계별로 일정이 정해져 있으며, 홈페이지를 통해 정보를 확인할 수 있습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원문에서의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 있지만, 핵심 주제를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원문에서의 핵심 메시지와 상반되는 내용을 담고 있어, 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.6386408512885907</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서는 학생부종합 평가를 통해 수능 미응시자도 지원이 가능합니다. 특히, "학생부종합(평생학습자전형)"은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 구성되어 있어 수능 미응시자를 포함하고 있습니다.
+따라서, 수능을 응시하지 않은 자도 이 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다는 사실을 무시하고, 2024학년도에 대한 잘못된 정보를 제공하고 있습니다. 또한, 충원 합격 차수에 대한 정보가 없다는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있지만, 원문에서 요구하는 정보와는 관련이 없습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관성이 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있으며, 전년도 충원 합격 인원에 대한 정보도 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5679622142405171</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>2024학년도 전자공학과의 충원 합격은 3차까지 이루어졌습니다. 각 차례별 일정은 다음과 같습니다:
+1차: 2024. 02. 14.(수) 09:00~16:00
+2차: 2024. 02. 15.(목) 09:00~16:00
+3차 이후: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+이와 같이 3차까지의 일정이 공고되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호를 언급하지 않고, 웹사이트를 방문하라는 일반적인 조언을 제공합니다. 그러나 원본 텍스트의 핵심 정보인 전화번호와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.6551335748692321</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하신 전화번호를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 직접 동의대학교 입학처에 연락하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 "자동으로 처리되지 않는다"라고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 연락이 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제의 핵심을 벗어나고 있습니다. 그러나 재통보 절차와 관련된 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 재통보 절차에 대한 설명이 있지만, 원본의 핵심 내용과 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전화 통화가 되지 않는 경우의 처리 방식에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5501495791292602</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 자동으로 처리되지 않습니다. 다시 확인해야 하는 절차가 있습니다.
+1. **재통보**: 학교 입학관리팀에서 재통보를 진행합니다. 이는 일반적으로 문자 메시지 또는 이메일을 통해 이루어집니다.
+2. **개인 연락처 확인**: 합격자에게 개인 연락처 정보를 다시 확인하게 합니다. 만약 개인 연락처가 변경되었다면, 이를 신속히 알려주어야 합니다.
+3. **재통보 시기**: 재통보는 일정 기간 내에 이루어져야 하며, 이 기간이 지나도 합격자와의 연락이 되지 않으면 학교 측에서는 해당 합격자를 제외할 수 있습니다.
+따라서 전화 통화가 되지 않는 경우에는 신속히 학교 입학관리팀에 연락하여 개인 정보를 확인하고 재통보 절차를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류를 잘 요약하고 있으며, 6년 과정과 12년 과정에 대한 정보를 정확하게 포함하고 있습니다. 그러나 "정원외 추가 제출서류"에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 서류 목록과 조건을 잘 반영하고 있습니다. 그러나 정원외 추가 제출서류에 대한 언급이 원본 텍스트에 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 필요한 서류에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 과정에 대한 서류를 명확하게 구분하여 설명하고 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 정보를 정확하게 반영하고 있지만, 정원외 추가 제출서류에 대한 언급이 원본 텍스트에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 정원외 추가 제출서류에 대한 언급으로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7387217267716</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형으로 지원 시 각각 다른 서류가 필요합니다. 
+**6년 과정**
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+**12년 과정**
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부 
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 정원외 지원 시 추가로 제출해야 할 서류가 있습니다. 
+**정원외 추가 제출서류**
+- 고교 졸업증명서
+- 지원자 본인, 부모 초본 각 1부 (총 3부) 또는 고교 졸업증명서, 지원자 본인 초본 1부
+위와 같은 서류를 준비하여 제출해야 합니다. 자세한 내용은 공식 웹사이트에서 확인하시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 필요한 서류에 대한 정보가 대부분 정확합니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 발급 방법에 대한 정보가 원본 텍스트와 일치하지 않아 일관성이 떨어집니다. 원본 텍스트는 특정 발급 방법에 대한 언급이 없기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 명확하게 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 발급 방법이 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 발급 방법에 대한 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 발급 방법이 원본의 의미와 다소 어긋나므로 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있어 완전한 이해 가능성은 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.8390205769962011</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 기회균등 전형이 존재하지 않음을 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 없다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6822238884350116</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024년 나군 정시 모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 따라서 정시모집에서 저소득 기회균등 전형으로 지원하는 것은 불가능합니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 "2.5 등급이 나오더라도 절대 절사하지 않습니다."라고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 절사가 없다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 질문의 핵심 사항인 수능 최저등급과 절사 여부에 대해 직접적으로 답변하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 절사 여부를 단정짓고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.7250623199230468</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절대 절사하지 않습니다. 수능 사탐 2 과목의 평균산출은 그대로 2.5 등급으로 처리됩니다.
+만약에 사탐에서 한 과목이 3등급이고 다른 과목이 2등급이라면, 평균을 내어 2.5 등급으로 처리합니다. 절사는 없으므로 최저등급 기준에 맞춰 그대로 2.5 등급으로 인정됩니다.
+더 궁금한 사항이 있으시다면 https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 발표와 2차 발표의 날짜와 시간을 정확하게 언급하고 있지만, 2차 발표에 대한 등록 가능 시간에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 3차 이후 발표에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 2차 발표에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 또한, 3차 이후 발표에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 3차 이후 발표에 대한 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2차 발표에 대한 등록 가능 시간과 3차 이후 발표에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 정보의 누락으로 인해 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.7482437773259311</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1. 첫 번째 충원 합격자는 2024년 2월 14일(수) 오전 9시에 발표됩니다.
+2. 두 번째 충원 합격자는 같은 날 오후 4시까지 등록이 가능하며, 이 역시 2024년 2월 14일(수)에 발표됩니다.
+3. 세 번째 충원 합격자 발표는 2024년 2월 15일(목) 오전 9시부터 시작되며, 이날 오후 4시까지 등록이 가능합니다.
+따라서 정시 충원 합격자 발표는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집 인원과 지원 인원, 평균 수능 성적 및 표준 편차에 대한 정보를 제공하고 있지만, 이는 원본 텍스트에 명시된 내용과 일치하지 않습니다. 원본 텍스트는 수능 4개 영역 등급과 관련된 평균 점수에 대한 정보를 제공하고 있으며, 생성된 응답은 이러한 세부 사항을 무시하고 새로운 정보를 추가했습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 내용을 포함하고 있습니다. 예를 들어, 수능 성적의 평균이 4.78이라는 정보는 원본 텍스트에 없으며, 이는 일관성을 저해합니다. 또한, 경쟁률에 대한 언급도 원본 텍스트와는 관련이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보와는 다소 동떨어진 내용을 포함하고 있습니다. 수능 성적이 4.6인 지원자의 추가 합격 가능성에 대한 논의는 관련성이 있지만, 원본 텍스트의 세부 사항을 무시하고 새로운 정보를 추가함으로써 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 이해할 수 있지만, 원본 텍스트와의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 예를 들어, 수능 성적의 평균과 모집 인원에 대한 정보는 원본 텍스트에 명시된 내용과 다릅니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 원본 텍스트와의 불일치로 인해 낮은 평가를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용을 포함하고 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.5880164934831653</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 e비즈니스학과의 모집인원은 10명이고, 지원 인원은 22명으로 경쟁률이 2.20입니다. 수능 성적의 평균은 4.78이며 표준 편차는 0.20입니다.
+제공된 정보만으로 판단하면, 수능 성적이 4.6인 지원자는 평균보다 약간 낮지만, 이는 단순히 평균과의 차이만을 의미하며, 경쟁률이나 모집 인원에 비해 상대적으로 좋은 성적입니다.
+하지만 정시 전형으로 추가 합격 가능 여부는 수능 성적이 4.6인 지원자가 해당 모집단위에서 얼마나 높은 위치를 차지하는지를 결정합니다. 이는 단순히 평균과의 비교보다는 전체 지원자의 성적 분포와 상대적인 위치에 따라 결정됩니다.
+따라서, 정확한 추가 합격 가능성 판단을 위해서는 해당 모집단위에서 수능 성적이 4.6인 지원자가 얼마나 높은 위치를 차지하는지를 확인해야 합니다. 이 정보가 제공되지 않았기 때문에, 더 자세한 분석을 위해 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대학 입시 관련 상담을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 정시 등급 5.3에 대한 합격 가능성을 언급하고 있으며, 전형별 모집 인원과 특징에 대한 정보를 추가로 제공하고 있습니다. 그러나 '일반 학생의 경우 0명이 모집되어 있다'는 부분은 정확한 정보인지 확인이 필요합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 정시 등급 5.3이 낮다는 점에서 일관성을 유지하고 있습니다. 다만, 나군과 다군의 모집 인원에 대한 정보가 원본 텍스트에 명시되어 있지 않아 약간의 불일치가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 정시 등급 5.3에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 나군과 다군의 모집 인원에 대한 정보가 원본 텍스트에 명시되어 있지 않아 정확성에 약간의 의문이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 정확성에 대한 의문이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6361573286481041</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형 및 모집 정보를 바탕으로, 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 낮을 것으로 보입니다.
+1. **모집인원**: e비즈니스학과는 정원 내 모집 인원이 40명이며, 가군과 나군, 다군에서 모두 모집합니다.
+2. **전형별 특징**:
+   - **가군 (수능 전형)**: 주로 수능 점수를 기준으로 모집하며, 정시 등급 5.3은 상당히 낮은 등급입니다.
+   - **나군 (실기/실적 전형)**: 실기고사와 서류심사를 통해 모집합니다. 이 경우에도 일반 학생의 경우 0명이 모집되어 있어, 정시 등급 5.3으로는 충분히 경쟁력을 갖추지 못할 것으로 보입니다.
+   - **다군 (평생학습자 전형)**: 주로 평생학습자나 성인 학습자를 대상으로 모집하며, 일반 학생의 경우 0명이 모집되어 있어 이 역시 충분히 경쟁력을 갖추지 못할 것으로 보입니다.
+따라서 정시 등급 5.3은 e비즈니스학과에 최초 합격 가능성은 낮을 것으로 예상됩니다. 더 높은 등급이나 다른 전형을 통해 지원하는 것이 좋을 것 같습니다. 자세한 정보는 동의대학교 입학처 홈페이지를 참조하시거나 직접 문의하시는 것을 추천드립니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학전공이 2024년도에 없어졌다고 주장하지만, 원본 텍스트에서는 예비 38번의 합격 가능성이 낮다는 정보만 제공하고 있습니다. 따라서, 이 정보는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, e비즈니스학전공의 존재 여부에 대한 정보가 추가되어 있습니다. 이는 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e비즈니스학전공에 대한 정보를 제공하려고 하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성은 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 질문과의 연결이 약해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - e비즈니스학전공이 2024년도에 없어졌다는 주장은 원본 텍스트의 정보와 일치하지 않으며, 이는 부정확한 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과는 다소 어긋나지만, 관련된 주제를 다루고 있어 중간 정도의 적절성을 보입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 흐름이 다소 복잡하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.5426857017414286</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설된 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)", "경기지도학과" 등 학과가 신설되었으므로, e비즈니스학전공에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 
+현재의 정보로는 e비즈니스학전공은 2023년도까지 존재했으며, 2024년도에는 해당 전공이 없어졌습니다. 따라서 2024학년도에 e비즈니스학전공을 지원하는 것은 불가능합니다.
+추가적인 정보나 자세한 지원 가능 여부를 확인하려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.44의 성적이 동의대학교 간호학과에 합격할 수 있는 점수라고 주장하지만, 원문에서는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공합니다. 원문에서는 3.44의 성적이 평균 등급보다 낮다고 언급하는 반면, 생성된 응답은 이 성적이 충분히 합격할 수 있다고 주장합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공합니다. 그러나 원문에서 제시된 평균 등급과의 비교가 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있습니다. 특히, 3.44의 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6178416580688624</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 것입니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 동의대학교 간호학과의 최저 합격 기준 점수와 비교해야 합니다.
+동의대학교 간호학과의 경우, 2023년도에 학생부종합 전형을 통해 모집하였고, 그 때의 반영 과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이었습니다. 이에 따라 성적 기준으로는 3.5 이상이 요구되는 경우가 많습니다.
+하지만 2024년도에는 반영 과목이 더 다양해졌고, 진로선택과목의 반영 기준도 바뀌어 A:1등급 B:3등급 C:5등급으로 조정되었습니다. 따라서 성적 기준만으로 판단하기보다는 전체 학생부 종합 평가를 고려해야 합니다.
+따라서, 3.44의 성적을 가지고 동의대학교 간호학과에 지원한다면:
+1. **성적** : 3.44은 2023년도 기준으로는 약간 낮지만, 2024년도 기준으로는 충분히 고려될 수 있습니다.
+2. **진로선택과목 성적** : 이 부분이 중요합니다. A:1등급 B:3등급 C:5등급으로 조정되었기 때문에, 진로선택과목에서 좋은 성적을 받은 경우 합격 가능성은 높아집니다.
+3. **학생부 종합 평가** : 인성, 학업역량, 전공적합성 등 다양한 요소를 고려하므로, 전체적으로 긍정적인 학생부를 가지고 있다면 합격 가능성이 있습니다.
+따라서, 3.44의 성적만으로는 확실한 결론을 내리기 어렵습니다. 동의대학교 간호학과의 최신 모집요강과 학생부 종합 평가 기준을 확인하시고, 자신의 전체적인 학생부를 고려해보시는 것이 좋겠습니다.
+더 자세한 정보나 추가 지원이 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급이 2.34이고, 수능 4개 영역 등급 평균이 3.37이라는 사실을 무시하고, 2.52라는 점수로 합격하기 어렵다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본 텍스트는 2.52가 평균 등급보다 높다고 언급했지만, 생성된 응답은 이를 반박하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 잘못 해석하여 관련성을 떨어뜨립니다. 그러나 간호학과의 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 2.52라는 점수가 평균보다 낮다고 잘못 주장하고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 잘못 해석하여 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.663967239149035</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과를 최종 합격시키기는 어려울 것으로 보입니다.
+간호학과의 지원자들의 성적 분포를 살펴보면:
+- 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합: 357.63
+- 표준 편차: 5.37
+이 데이터는 간호학과 지원자의 성적이 상대적으로 높은 것을 보여줍니다. 평균 점수가 357.63이고, 표준 편차가 5.37이라는 것은 대부분의 합격자들의 점수가 이 수치를 크게 벗어나지 않는다는 것을 의미합니다.
+당신이 제시한 성적인 2.52는 평균보다 상당히 낮은 점수입니다. 따라서, 현재로서는 간호학과 최종 합격을 기대하기 어렵습니다.
+하지만, 입학사정관제나 특기자전형 등 다른 전형을 통해 합격할 가능성도 있습니다. 이에 대한 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 직접 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 간호학과의 평균 등급에 대한 정보를 잘못 해석하고 있습니다. 정시 성적이 3.7이라면 평균 등급보다 낮다고 언급했지만, 응답에서는 합격 가능성이 있다고 주장하고 있습니다. 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본에서는 3.7이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 다른 전형을 통해 합격 가능성이 있다고 언급하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 간호학과와 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 핵심 내용을 왜곡하고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 합격 가능성에 대한 언급이 원본의 정보와 충돌합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정시 성적에 대한 해석이 부정확합니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 부족하고, 사실적 정확성도 떨어지기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과 다르게 해석된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.7025618518799526</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도의 간호학과에 대한 정보가 제공되지 않았습니다. 현재 정보에서는 간호학과와 관련된 변경 사항이 없습니다. 하지만 정시 성적이 3.7이라면, 학생부 종합전형이나 다른 전형을 통해 합격 가능성은 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 간호학과의 정시 모집 성적 기준 등을 확인해보세요. 또한, 해당 대학의 입학처에 문의하시거나, 학교 방문을 통해 최신 정보를 얻는 것이 좋습니다.
+만약 추가로 도움이 필요하다면, 다시 질문해주세요!</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 점수와 관련된 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 간호학과의 영어 등급 평균이 2.34이고, 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있지만, 생성된 응답에서는 4.78이라는 점수를 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.58이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 2.58이 상대적으로 낮은 점수라고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 왜곡하고 있습니다. 응답은 합격 가능성에 대한 논의를 포함하고 있지만, 잘못된 평균 점수를 기반으로 하고 있어 관련성은 있지만 신뢰성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해져 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 다르며, 잘못된 평균 점수를 제시하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6355618520346156</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어, 수학, 영어 등 주요 과목의 평균 점수가 제공되지 않았습니다. 따라서 현재 정보로는 정확한 판단을 내리기 어렵습니다.
+하지만, 2024년 동의대학교 간호학과의 정시 모집에서 국어, 수학, 영어 등 주요 과목의 평균 점수가 4.78이었고 표준 편차가 0.20이라는 것을 고려하면, 평균 점수와 비교해볼 때 2.58은 상대적으로 낮은 점수입니다.
+정시 모집의 경쟁률과 충원 합격 인원 등을 고려할 때, 2.58이라는 점수로는 합격하기 어려울 것으로 예상됩니다. 하지만, 정확한 판단을 내리기 위해서는 동의대학교 간호학과의 정시 모집에서 실제 평균 점수와 경쟁률 등을 확인해야 합니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 게임공학과에 대한 정확한 정보를 제공하지 않으며, 예비 7번의 합격 가능성에 대한 명확한 판단을 내리지 못하고 있습니다. 원본 텍스트에서 제시된 충원합격 정보와 상충하는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본에서는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 판단을 피하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 예비 7번의 합격 가능성에 대한 직접적인 답변을 제공하지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받으며, 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비 7번에 대한 명확한 정보를 제공하지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 정보의 부족으로 인해 명확한 결론을 내리기 어려운 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6081098493149056</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>2024년의 모집 정보를 바탕으로 현재 게임공학과에 대한 정확한 정보가 없습니다. 게임공학과는 나군에서 조기취업형 계약 학과전형으로 모집되는 것으로 보이지만, 해당 전형의 모집단위와 모집인원은 제공되지 않았습니다.
+현재 주어진 정보로는:
+- 조기 취업형 계약 학과전형에 대한 정원 외 모집단위가 있습니다.
+- 그러나 게임공학과에 대한 명확한 정보가 없습니다.
+따라서, 7번 예비번호의 붙을 확률을 판단하기 위해서는:
+1. 게임공학과의 정확한 모집단위와 모집인원이 필요합니다.
+2. 나군의 조기 취업형 계약 학과전형에 대한 추가 정보가 필요합니다.
+추가적인 정보를 제공해 주시면 더 정확한 답변을 드릴 수 있습니다. 필요한 경우, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 웹사이트에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 게임공학과의 평균 점수와 표준 편차에 대한 구체적인 수치를 잘못 제시하고 있습니다. 원본 텍스트에서는 평균 등급이 4.78이라고 명시되어 있으나, 생성된 응답에서는 427.00이라는 수치가 언급되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 점수에 대한 잘못된 정보로 인해 일관성이 떨어집니다. 또한, 추가 합격 가능성에 대한 판단이 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 합격 가능성에 대한 정보를 적절히 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 잘못된 수치로 인해 정확성이 떨어집니다. 원본 텍스트의 사실을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 문제로 인해 완벽한 점수를 받지 못했습니다. 관련성과 유창성은 높지만, 일부 정보의 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 의미를 전달하고 있습니다. 그러나 평균 점수에 대한 잘못된 정보로 인해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6840631668456461</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 정시로 지원하는 경우, 현재 제공된 데이터만으로는 확정적인 추가 합격 가능성 판단하기 어렵습니다. 
+게임공학과의 수능 평균 점수가 427.00이고 표준 편차가 11.25라는 것을 볼 때, 4.16이라는 점수는 약간 낮은 편입니다. 그러나 표준 편차를 고려하면, 이 점수도 합격 가능성에 영향을 줄 수 있습니다.
+추가적으로, 정시 전형의 경우 각 대학에서 제시하는 기준과 절차를 준수해야 하며, 지원자의 개인적인 경쟁률, 서류 평가 결과 등 다양한 요인들이 합격 여부에 영향을 미칩니다. 
+따라서, 정확한 추가 합격 가능성 판단을 위해서는 동의대학교 게임공학과의 정시 전형 기준 및 절차를 확인하고, 지원자의 전체적인 평가 결과를 고려해야 합니다.
+더 자세한 정보를 얻기 위해 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 공식 정보를 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 경영정보학과의 성적 기준에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 언급된 평균 성적과 합격 가능성에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 성적 기준이 명확히 제공되지 않았다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 경영정보학과에 지원하는 방법에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 성적 기준과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 경영정보학과의 성적 기준에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족함을 보입니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 다소 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.575800447162395</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집에서는 성적 기준이 명확히 제공되지 않았습니다. 따라서, 현재 정보로는 경영정보학과에 지원하려면 정시모집군을 확인해야 합니다.
+정시모집군 변경 내용 중에서 경영정보학과가 포함되어 있는지 확인해 보세요. 만약 해당 학과가 포함되어 있지 않거나, 특정 성적 기준이 명시되어 있지 않다면, 입학사정관제나 다른 전형을 통해 지원할 수 있다는 것을 고려해 보실 필요가 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do) 웹사이트를 방문하거나, 입학처에 직접 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과가 신설되지 않았다고 주장하지만, 원본 텍스트에서는 경영정보학과의 평균 등급과 합격 가능성에 대한 정보만 제공하고 있습니다. 따라서, 경영정보학과의 신설 여부에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 신설 여부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 합격 가능성에 대한 정보만 제공하고 있어, 생성된 응답은 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과에 대한 지원 가능성에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 평균 등급과 합격 가능성에 대한 정보는 다루지 않고 있습니다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 경영정보학과의 신설 여부에 대한 언급이 원본 텍스트와의 연관성을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 신설 여부에 대한 잘못된 정보를 포함하고 있으며, 이는 원본 텍스트의 사실과 일치하지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다. 경영정보학과의 신설 여부에 대한 언급은 원본 텍스트의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용은 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6128081958098359</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 신설하지 않았으므로, 현재로서는 경영정보학과에 지원이 불가능합니다.
+현재의 정보를 바탕으로, 정시 모집에서는 학생부종합 평가 영역을 통해 지원 가능합니다. 그러나 경영정보학과가 신설되지 않았기 때문에, 최초등록자로 지원하는 것은 불가능합니다.
+만약 다른 학과에 지원하려면, 2024학년도의 모집요강을 확인하여 지원 자격을 다시 한번 점검해보시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 최신 정보를 확인하실 수 있습니다.
+더 궁금하신 사항이 있으시다면, 언제든지 질문해주세요!</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 평균 성적과 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 판단을 위해 추가적인 정보가 필요하다고 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 성적보다 낮은 성적을 가지고 있다는 점을 명확히 언급하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 합격 가능성에 대한 결론이 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 확정적으로 답변하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 합격 가능성에 대한 질문에 적절하게 대응하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으며, 추가적인 정보가 필요하다는 점을 강조하고 있습니다. 그러나 원본 텍스트의 결론을 명확히 반영하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 질문에 대한 적절한 답변을 제공합니다. 다만, 원본 텍스트의 결론을 명확히 반영하지 않아 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6140956864165319</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적이 5.33인 경우 합격이 가능한지 확정적으로 답변하기 어렵습니다. 정확한 합격 가능성 판단을 위해서는 동의대학교 경영정보학과의 평균 점수와 표준 편차, 지원 인원 및 모집 인원 등을 고려해야 합니다.
+특히, 다음과 같은 정보가 필요합니다:
+1. 동의대학교 경영정보학과 일반학생전형의 평균 점수
+2. 동의대학교 경영정보학과 일반학생전형의 표준 편차
+3. 해당 학과의 모집 인원 및 지원 인원
+이런 정보를 바탕으로, 정시 성적이 5.33인 경우 해당 학과의 평균 점수와 비교하여 경쟁률 등을 고려해보면 됩니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 성적 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 성적(영어 3.82, 수능 4개 영역 4.74)에 대한 언급이 없습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 특히 성적 기준에 대한 구체적인 언급이 부족합니다. 그러나 입학규정에 대한 언급은 일관성을 유지하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 지원할 때 성적 기준을 확인해야 한다는 점에서 관련성이 있지만, 원본 텍스트의 주요 내용(합격 가능성)에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 기준을 반영하지 않으며, 정보의 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이며, 특히 사실성과 정확성에서 부족함이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적절하게 부합하지만, 구체적인 성적 기준에 대한 언급이 부족하여 약간의 부적절함이 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6095750572176919</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)를 지원하실 때는 성적 기준을 확인해야 합니다. 현재 정보로는 정시 모집군에서의 성적 기준은 구체적으로 명시되어 있지 않으므로, 동의대학교의 2024학년도 입학규정을 확인해 보시기 바랍니다.
+입학규정과 전형요소를 자세히 살펴보시는 것이 좋습니다. 특히, 학생부종합 평가 영역과 성적 반영 방법 등에 대한 내용을 확인하시면 도움이 될 것입니다.
+만약 입학규정이나 전형요소에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지 않고, 지원 가능성을 판단하기 어렵다고 언급하고 있습니다. 이는 원본 텍스트의 명확한 정보를 반영하지 않으며, 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 방사선학과의 평균 등급에 대한 언급이 없고, 지원 가능성에 대한 판단을 회피하고 있습니다. 이는 원본 텍스트의 주장을 완전히 일관되게 반영하지 못합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 관련된 정보를 제공하고 있으며, 웹사이트 링크를 통해 추가 정보를 찾도록 안내하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점이 아쉽습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 구체적인 정보를 제공하지 않으며, 이는 원본 텍스트의 사실과 일치하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 이로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 방사선학과에 대한 지원 가능성에 대한 질문에 적절하게 반응하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 포함하지 않아 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7459985591685239</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 방사선학과에 지원할 수 있는지 확실하게 판단하기 어렵습니다. 현재의 등급이 4.4로, 방사선학과의 입학 기준을 정확히 알기 위해서는 해당 학과의 최소 등급 요구사항을 확인해야 합니다.
+방사선학과의 입학 기준에 대한 정보를 얻으려면 다음 웹사이트를 참조해 보세요: &lt;https://ipsi. deu. ac. kr/main. do&gt;
+이 사이트에서 방사선학과의 최소 등급 요구사항을 확인하고, 자신의 성적과 비교하여 지원 가능성을 판단하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률이나 합격 점수를 정확히 알 수 없다고 언급하고 있으며, 이는 사실입니다. 그러나 원본 텍스트에서 제공된 정보(2.66의 정시 등급이 평균보다 높다는 점)를 반영하지 않고, 지원하기 어렵다고 결론짓는 부분은 다소 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 2.66이라는 점수로 방사선학과에 지원하기 어렵다고 언급한 부분은 원본 텍스트의 긍정적인 해석과 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 포인트인 2.66의 점수에 대한 긍정적인 해석을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 2.66의 점수에 대한 해석이 원본 텍스트와 다르게 나타나 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 긍정적인 해석을 반영하지 못한 점에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.6439158600660037</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 방사선학과의 경쟁률이나 합격 점수를 정확히 알 수 없습니다. 방사선학과의 경우, 해당 학과에 대한 모집 인원과 지원 인원, 평균 점수 등이 필요합니다. 
+특정 학과의 경쟁률을 확인하려면, 다음과 같은 정보가 필요합니다:
+1. 2024년도 방사선학과의 모집 인원
+2. 2024년도 방사선학과의 지원 인원
+3. 2024년도 방사선학과의 평균 점수
+위 정보를 바탕으로 경쟁률을 계산할 수 있습니다. 예를 들어, 경쟁률은 다음과 같이 계산됩니다:
+\[ \text{경쟁률} = \frac{\text{지원 인원}}{\text{모집 인원}} \]
+만약 위 정보가 부족하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 더 자세한 정보를 얻으시는 것이 좋습니다.
+현재 2.66이라는 점수로는 방사선학과에 지원하기가 어렵다고 볼 수 있습니다. 하지만, 이 점수만으로는 위험성을 판단하기 어렵습니다. 정확한 정보를 얻기 위해서는 해당 학과의 최신 모집 정보를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 2024학년도 수능 평균 등급에 대한 정보를 제공하지 않고, 대신 정시 모집에 대한 정보 요청으로 시작합니다. 이는 원본 텍스트의 핵심 정보를 무시하고 있으며, 제공된 정보에 대한 정확한 해석이 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 3.66이라는 성적이 평균보다 높고, 경쟁률이 낮아졌다는 긍정적인 요소를 강조하고 있지만, 생성된 응답은 이러한 정보를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 정시 모집에 대한 정보 요청으로 시작하지만, 원본 텍스트의 핵심 내용인 성적과 경쟁률에 대한 언급이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적인 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 특히 성적과 경쟁률에 대한 긍정적인 해석을 생략하고 있습니다. 이는 정보의 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 완전히 반영하지 않지만, 일부 관련된 정보를 제공하고 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.4849384260680658</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 정보만 주시면 답변을 드리겠습니다. 현재 제공된 정보에서는 경찰행정학과의 정시 모집에 대한 구체적인 학교별 기준 점수나 합격 가능 여부를 확인할 수 없습니다.
+2024학년도의 정시모집군 변경 사항에 따르면, 학생부종합 전형이 주로 적용되며, 학생부 교과성적 반영방법 등이 바뀌었습니다. 따라서 3.66이라는 성적이 경찰행정학전공 농어촌 전형으로 지원할 경우 합격 가능 여부는 해당 학교의 정시 모집 기준 점수와 비교하여 판단해야 합니다.
+具体的来说，您提供的2024学年的信息中没有关于警察行政学专业的具体录取分数线。因此，根据您的3.66的学业成绩是否能够被该专业农村招生类型录取，需要参考该学校在2024年公布的正式招生要求。
+建议您可以访问“https://ipsi. deu. ac. kr/main. do”网站查看最新的招生信息和具体的录取分数线。</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않으며, 원본의 핵심 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 특정 학과에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 동점자 처리 기준에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 질문의 핵심인 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 특정 학과와 예비 번호에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 질문의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.5153135218134933</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>25번의 점수는 동점자 처리 기준에 따라 결정됩니다. 동점자 처리 기준은 수능 국어, 수학, 영어 등급 점수를 합산하여 상위자를 선정합니다.
+가군 수능(일반학생전형)의 동점자 처리 기준은 다음과 같습니다:
+1. 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+2. 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+3. 공과대학, ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서 25번의 점수가 붙을 확률은 다음과 같은 요인에 따라 달라질 수 있습니다:
+1. 국어와 수학, 영어 등급 점수
+2. 인문사회과학대학과 상경대학 모집단위에서의 국어영역 표준점수
+3. 공과대학과 ICT융합공과대학 모집단위에서의 수학(미적분 또는 기하) 응시자들
+이러한 요인들이 모두 고려되면, 25번의 점수가 붙을 확률은 어느 정도 될 수 있습니다. 하지만 정확한 확률을 예측하기 위해서는 해당 대학과 모집단위의 동점자 처리 기준을 자세히 분석해야 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 대학 입시 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부의 존재를 언급하고 있으나, 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있습니다. 또한, 평균 성적에 대한 정보도 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 법경찰행정학부의 모집 인원과 평균 성적에 대한 내용이 원본 텍스트와 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 입학 관련 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 경찰행정학과의 평균 성적 추정과는 관련이 적습니다. 법경찰행정학부에 대한 정보는 원본 텍스트와 관련이 없으므로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다. 정보가 서로 연결되지 않아 다소 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재와 관련된 정보는 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 언급은 원본 텍스트의 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.6655068134160513</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 현재 나군에서 일반 학생 모집인원은 2명입니다. 이는 아직 많은 정원이 남아 있는 상태로 보입니다.
+평균 성적을 예측하기 위해서는 과목별 등급 평균과 전체 학교생활기록부 평균 등을 고려해야 합니다. 일반적으로 안정권으로 들어가기 위한 평균성적은 90점 이상, 문 닫고 들어갈 수 있는 성적은 85점 이상을 받는 것이 좋습니다.
+하지만 이는 예측이며, 실제 모집 실적과 경쟁률에 따라 변동될 수 있습니다. 따라서 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 확실합니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지를 방문하여 자세한 정보를 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 지원 자격 및 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 누락되어 있습니다. 또한, 아동학과의 평균 등급이 6.33이라는 중요한 사실이 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정보와는 일관성이 부족합니다. 아동학과의 평균 등급에 대한 언급이 없고, 보육가정상담학과의 경쟁률에 대한 정보가 추가되었으나, 원본 텍스트의 핵심 내용과는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 아동학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률에 대한 정보를 제공하지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 원본 텍스트의 핵심 사실이 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 누락하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 중요한 정보가 누락되어 있어 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.6369781779250547</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 지원 자격 및 경쟁률을 확인해보겠습니다.
+현재 제공된 데이터는 각 단과대학, 모집단위별 지원 인원, 충원 합격 인원 등에 대한 정보만 포함하고 있습니다. 따라서 정시 산출 등급이 5.33인 경우 해당 학과의 경쟁률이나 평균 등급을 통해 합격 가능성을 판단해야 합니다.
+보육가정상담학과의 지원 자격 및 경쟁률은 다음과 같습니다:
+- 모집 인원: 20명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+평균 등급 정보는 제공되지 않았으므로, 정시 산출 등급이 5.33인 경우 해당 학과의 평균 등급을 상회한다면 합격 가능성은 높아질 것입니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는 동의대학교 보육가정상담학과의 실제 평균 등급 및 경쟁률 등을 확인해야 합니다. 만약 해당 정보를 얻지 못하면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 찾아보시는 것을 추천드립니다.
+이 정보로 합격 가능성은 높아질 수 있지만, 확실하지 않은 점이 있으므로 추가적인 확인이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 대체로 정확하지만, 3차 발표 시간이 '오전 9시'로 잘못 기재되어 있습니다. 원문에서는 '19:00'으로 명시되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 발표 시간에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 또한, '확실한 것은 아닙니다'라는 표현은 원문에서의 불확실성을 잘 반영하고 있으나, 다른 부분에서의 정보가 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 발표 시간에 대한 불일치로 인해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 발표 시간에 대한 오류가 있어 완전한 정확성을 보장하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되었으나, 발표 시간의 오류로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 발표 시간의 오류로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 발표 시간의 오류로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7351525554260107</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 경우, 충원 합격자 발표 및 등록이 여러 차례 이루어집니다. 현재 정보로는 3차 충원 합격자 발표가 2024년 2월 15일 목요일 오전 9시부터 시작되며, 이 시점에서 예비 12번을 받았다면 합격 가능성은 있습니다.
+하지만 확실한 것은 아닙니다. 합격 여부는 최종 발표를 기다려야 합니다. 학교 홈페이지에서 개별 조회를 통해 확인하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+추가로, 동점자 처리기준을 고려하면 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자 순으로 처리되므로, 해당 과목들의 성적을 잘 유지하고 있으면 좋은 결과를 얻을 가능성이 있습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하시거나 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 입학할 가능성이 높다고 주장하지만, 원본 텍스트에서는 4.75의 성적이 유아교육학과에 지원하기 어려울 것이라고 명확히 언급하고 있습니다. 따라서 사실관계에 큰 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75의 성적이 유아교육학과에 지원하기 어려운 점수를 나타내고 있지만, 생성된 응답은 그 반대의 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 유아교육학과에 대한 정보는 포함되어 있으나, 잘못된 결론을 도출하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 정보와 일치하지 않기 때문에 일관된 주장을 형성하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 4.75의 성적이 유아교육학과에 입학할 가능성이 높다는 주장은 원본의 정보와 모순됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 정확성에서 큰 문제를 가지고 있어 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 주장을 하고 있어 의미적으로 완전한 적합성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.7226335713196599</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 상당히 높은 점수입니다. 하지만 학교별로 평균성적이 다르고, 특히 유아교육학과와 같은 특정 전공에서는 일반적인 성적이 더 낮을 수 있습니다. 따라서 4.75의 성적으로는 유아교육학과에서도 충분히 입학할 가능성이 높습니다.
+하지만 정확한 확률은 학교별로 평균성적, 모집인원 등 다양한 요소에 따라 달라질 수 있으므로, 최종적인 확실성을 위해서는 해당 학교의 입학사정관이나 학과 홈페이지를 통해 확인하는 것이 좋습니다. 또한, 성적이 높더라도 서류평가와 면접 등의 평가에서도 좋은 결과를 얻어야 하기 때문에 전반적으로 잘 준비해야 합니다.
+더 궁금한 점이 있다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 환산등급 기준에 대한 불확실성을 언급하고 있으며, 경쟁률이 낮을 가능성이 있다고 언급하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 데이터와 비교할 때, 일부 정보가 누락되거나 불확실한 부분이 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 보육가정상담학과의 평균 등급에 대한 구체적인 수치를 제공하지 않고 있습니다. 또한, 경쟁률에 대한 언급이 원본 텍스트와는 다소 다른 맥락을 가지고 있어 일관성이 떨어진다고 판단하여 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 보육가정상담학과의 경쟁률과 환산등급 기준에 대한 정보를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때, 일부 정보가 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴져 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 데이터와 비교할 때, 일부 정보가 정확하지 않거나 누락된 부분이 있어 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 정보의 정확성과 일관성에서 부족함이 있어 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으나, 일부 정보가 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공하고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6077467835357361</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 보육가정상담학과의 일반학생전형에 대한 환산등급 기준을 정확히 알 수 없습니다. 하지만, 보육가정상담학과의 경우 다른 전공들보다 지원자가 많지 않은 편이므로 경쟁률이 상대적으로 낮을 가능성이 있습니다.
+보육가정상담학과의 일반학생전형에 대한 환산등급 기준은 공개되지 않았지만, 보통의 대학에서는 평균 4.0 이상의 등급이 필요하다는 점을 참고로 할 수 있습니다. 제공된 데이터에서 보육가정상담학과의 경우 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 399.58입니다.
+당신의 환산등급이 4.16이라면, 이는 약간 높은 등급으로 보이며, 이 정도의 등급을 가지고 추합까지 생각한다면 어느정도의 가능성은 있을 것입니다. 하지만, 최종 합격 여부는 경쟁률과 지원자의 전체 성적 분포에 따라 결정되므로 확실한 것은 아닙니다.
+추합까지 고려할 경우, 면접 점수와 서류 평가 등 다른 요소들도 중요하게 작용하므로, 이 부분도 잘 준비하는 것이 좋습니다. 만약 더 정확한 정보를 얻고 싶다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하시는 것을 추천드립니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 소프트웨어공학부로의 변경과 관련된 정보는 사실일 수 있지만, 원문에서 명시된 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 정시모집군으로 변경되었다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원문에서 요구하는 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름을 유지하지 못하고 있습니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 소프트웨어융합학과의 정시 지원 불가라는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 관계가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 부적절한 내용을 포함하고 있습니다. 원문의 주제와는 상반된 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성 문제로 인해 이해하기 어려운 부분이 있습니다. 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.4114742614649771</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)가 정시모집군으로 변경되었습니다. 이전에는 소프트웨어융합학과라는 학과명이 있었지만, 2024년부터는 소프트웨어공학부로 명칭이 변경되었고, 해당 분야의 전공을 공부하게 됩니다.
+소프트웨어공학부에 지원하려면 평균 몇 등급정도 받아야 하는지 확인해보겠습니다. 
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77입니다. 이는 지원자의 국어, 수학, 탐구 과목에서 받은 등급을 기반으로 한 점수이며, 이 값 이상을 받아야 합니다.
+영어 등급의 평균은 3.66이고, 이 역시 지원자에게 요구되는 영어 등급입니다.
+수능 4개 영역 등급의 평균은 5.04이며, 이는 수능에서 받은 과목별 등급을 평균한 값입니다.
+따라서 소프트웨어공학부에 지원하려면 위와 같은 점수를 받아야 합니다. 하지만 경쟁률이 높아 특정 등급 이상을 받아야 하는 경우가 있을 수 있으므로, 최상위 등급을 받는 것이 좋습니다. 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접관이 실제 능력과 성과를 더 중요하게 여긴다고 언급하고 있지만, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 원본 텍스트는 서류 평가와 면접 고사에 대한 구체적인 정보를 제공하고 있으며, 특장점에 대한 언급이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 면접관의 평가 기준에 대한 정보가 추가되어 있습니다. 이는 원본 텍스트의 정보와 상충하므로 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 면접 준비와 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용과는 거리가 있어 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으므로 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.3268458376040178</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>一般来说，面试官会更注重考生的实际能力和表现，而不是仅仅看特长内容。不过，特长部分确实也是评价的一部分，因此建议您在准备时也要充分展示自己的特长和能力。
+对于是否需要额外的提交文件，根据提供的信息来看：
+- 对于“나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)”：
+  - 没有提到需要额外提交特长相关的文件。
+- 对于“나군 학생부종합(조기취업형계약학과전형)”：
+  - 同样没有特别提到需要提交特长相关的文件。
+因此，根据提供的信息，您不需要为特长部分单独准备额外的提交文件。但建议在面试中充分展示您的特长和能力，以获得更好的评价。
+如果您还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보를 제공하지 않으며, 4.08의 성적이 경쟁력이 부족할 수 있다고 언급하지만, 이는 원본 텍스트에서 제공된 정보와 일치하지 않습니다. 원본 텍스트는 4.08이 평균 성적에 근접하다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 4.08의 성적이 평균에 근접하다고 언급하는 반면, 생성된 응답은 4.08이 경쟁력이 부족할 수 있다고 주장합니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 성적에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적으로 일관된 메시지를 전달하지 못하고 있습니다. 정보가 분산되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있으며, 특히 평균 성적에 대한 해석이 잘못되었습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부는 잘 작성되었으나, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 특히 성적에 대한 해석이 부적절합니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7736090721975689</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 소프트웨어공학부의 정시 최초합격자의 평균 성적을 확인할 수 없습니다. 해당 단과대학의 정시 최초합격자의 평균 성적과 표준 편차를 가지고 있어야 정확한 판단이 가능합니다.
+만약 동의대학교 소프트웨어공학부의 정시 최초합격자들의 평균 성적이 4.08 이상이라면, 4.08이라는 점수로는 경쟁력이 부족할 수 있습니다. 반대로 만약 평균 성적보다 낮다면, 가능성이 있을 수 있습니다.
+따라서, 동의대학교 소프트웨어공학부의 정시 최초합격자들의 성적 정보를 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보를 포함하고 있습니다. 5등급이 B 등급으로 반영된다는 내용은 사실이 아니며, 5등급이 3등급에 해당한다는 주장은 잘못된 해석입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 소프트웨어융합학과의 합격 등급 정보가 포함되어 있지 않다고 명시하고 있지만, 생성된 응답은 5등급이 B 등급으로 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 적절한 관련성을 가지지 못합니다. 원본 텍스트가 제공하는 정보와는 다르게, 소프트웨어공학부에 대한 정보로 전환되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 잘못된 정보를 포함하고 있습니다. 5등급이 B 등급으로 반영된다는 주장은 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해하기 어려운 부분이 존재합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.5883783723356918</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 진로선택과목 성적반영 기준을 살펴보면, 5등급은 B 등급으로 반영됩니다. 즉, 5등급은 3등급에 해당하는 점수로 평가되므로 여기 올 수 있습니다.
+만약 더 자세한 정보나 다른 학과의 경우를 알고 싶다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 평균 점수와 표준 편차를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 4.28이라는 점수는 최초합격자와 최종등록자의 평균 등급보다 높다고 명시되어 있습니다. 따라서, 합격 가능성이 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있어 일관성이 떨어집니다. 원본에서는 4.28이 평균보다 높다고 하였으나, 생성된 응답에서는 평균 점수와 표준 편차를 고려해야 한다고 하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 신소재공학부의 평균 점수와 표준 편차를 언급하여 관련성을 유지하고 있습니다. 그러나 원본 텍스트의 명확한 결론을 무시하고 추가적인 정보를 요구하는 점에서 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 결론과 상충하는 내용이 포함되어 있어 논리적 흐름이 약간 깨집니다. 따라서 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, 평균 점수와 표준 편차를 고려해야 한다는 주장은 원본의 결론과 상반되므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 사실성과 일관성에서 낮은 점수를 받아 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 원본의 결론을 무시하고 추가적인 조건을 제시하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.6258507694756824</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학부에 합격할 수 있는지 확실한 답변을 드리기 위해서는 해당 학과의 평균 점수와 표준 편차 등을 고려해야 합니다.
+현재 제공된 정보에서는 특정 단과대학의 신소재공학부에 대한 데이터가 없습니다. 하지만 일반적으로 대학별로 평균 점수와 표준 편차는 다르므로, 동의대학교 신소재공학부의 평균 점수와 표준 편차를 확인해야 합니다.
+만약 동의대학교 신소재공학부의 평균 점수가 4.28보다 높고 표준 편차가 작다면, 합격 가능성은 낮을 수 있습니다. 반대로 평균 점수가 낮거나 표준 편차가 크다면, 합격 가능성은 더 높아질 수 있습니다.
+더 정확한 정보를 얻기 위해서는 동의대학교 신소재공학부의 공식 입학성적 기준을 확인하거나, 대학 입학처에 문의하는 것이 좋습니다. 또한, 제공된 데이터에서 다른 단과대학의 평균 점수와 표준 편차를 참조하여 합격 가능성을 예측할 수도 있습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해 보시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 정보(전형의 계산 방법 등)가 포함되어 있어 원문과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문에서 언급된 자기소개서의 필요성에 대한 정보는 일관되지만, 추가된 계산 방법에 대한 정보는 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 대한 답변으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 부분이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 추가된 계산 방법에 대한 정보는 원문에 포함되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 추가된 정보가 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 많아 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.5278803965335659</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自述书。对于一般学生入学考试（수능 일반학생전형），主要依据的是学测成绩（수능 점수）。具体来说，不同专业群的计算方法有所不同：
+1. **인문사회과학, 상경대학 모집단위**:
+   - 계산 방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+2. **의료·보건·생활, 공과대학, ICT융합공과대학 모집단위**:
+   - 계산 방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+3. **레저스포츠학과, 태권도학과**:
+   - 계산 방법: 수능 4개 영역 (국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+4. **나머지 모집단위**:
+   - 계산 방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 (혹은 가산점)
+因此，对于一般学生入学考试（수능 일반학생전형），不需要写自述书。主要依据的是学测成绩进行计算和排名。如果有特殊要求或需要补充材料的情况，请参考具体招生简章中的说明。
+자기소개서는 필요하지 않습니다. 주로 학력성적 (수능 점수)에 따라 계산되고 평가됩니다. 특정 모집단위나 전형에서 추가 자료가 필요한 경우에는 해당 채용 안내를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 평가하는 데 필요한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 표준 편차에 대한 구체적인 데이터가 누락되어 있습니다. 또한, 평균 점수와 관련된 정보가 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 평균 점수와 관련된 정보가 원본 텍스트와 일관되지 않습니다. 특히, 각 학과의 평균 점수와 관련된 정보가 원본 텍스트에 명시된 등급 평균과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5와 관련된 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나, 원본 텍스트에서 강조된 평균 등급과 표준 편차에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 수능 점수에 따른 합격 가능성을 설명하는 데 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 평균 점수는 원본 텍스트의 정보와 일치하지 않으며, 이는 정확성에 영향을 미칩니다. 원본 텍스트의 데이터와 비교할 때, 일부 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성과 유창성은 양호하지만 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부 사항에서 원본 텍스트와의 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.772268578513121</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 점수가 주어졌을 때, 어떤 단과대학과 모집단위에서 합격할 수 있는지 판단하기 위해서는 해당 단과대학 및 모집단위의 경쟁률과 평균 점수 등을 고려해야 합니다.
+주어진 데이터를 바탕으로, 각 단과대학 및 모집단위별로 평균 점수가 다음과 같습니다:
+1. **인문사회과학대학 광고홍보학과**: 329.00
+2. **인문사회과학대학 미디어커뮤니케이션학과**: 439.60
+3. **인문사회과학대학 법학과**: 448.29
+4. **인문사회과학대학 경찰행정학과**: 452.57
+5. **인문사회과학대학 사회복지학과**: 425.14
+6. **상경대학 금융경영학과**: 402.53
+7. **상경대학 재무부동산학과**: 392.70
+8. **상경대학 무역학과**: 407.63
+이 중에서, 수능 점수가 4.5인 경우, 가장 낮은 평균 점수를 가진 단과대학 및 모집단위는 **상경대학 재무부동산학과**입니다 (평균 점수: 392.70).
+따라서, 수능 점수가 4.5인 경우, **상경대학 재무부동산학과**에서 충분히 합격할 가능성이 높습니다.
+하지만 추가모집의 경우, 각 단과대학 및 모집단위별로 경쟁률이 변동될 수 있으므로, 정확한 판단을 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 학교 관계자에게 직접 문의하는 것이 좋습니다.
+추가모집에 대한 정보와 최종 합격 가능성을 확인하려면, 동의대학교의 공식 웹사이트에서 추가모집 관련 안내를 확인하시거나, 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 등급에 대한 내용을 누락하고 있습니다. 그러나, 입학처 웹사이트를 통해 추가 정보를 얻으라는 조언은 유용합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 평균 등급에 대한 구체적인 수치를 제공하지만, 생성된 응답은 그러한 정보를 생략하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학부에 대한 추가 정보를 요청하는 내용으로, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 정보가 누락되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트의 핵심 정보를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 평균 등급에 대한 정보를 누락하고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 누락하고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 맞는 의미를 전달하고 있으며, 적절한 조언을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 다만, 원본 텍스트의 정보가 부족하여 완전한 이해를 돕지 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.58531182234766</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 모집군이나 합격 기준 등급에 대한 내용이 없습니다. 
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do) 또는 대학 입학 안내 센터로 직접 문의하시는 것이 좋습니다.
+입학 전형 및 합격 기준 등에 대한 최신 정보를 얻기 위해서는 공식 홈페이지에서 확인하시거나, 대학 입학 안내 센터와 연락을 취하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 잘못되었습니다. 원문에서는 평균 점수가 378.15점이라고 명시되어 있는데, 생성된 응답에서는 447점이 평균보다 높다고 언급하고 있습니다. 그러나 424.05라는 점수는 원문에 언급된 378.15점과 관련이 없으며, 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 447점이 평균보다 훨씬 높다고 명시하고 있지만, 생성된 응답에서는 447점이 평균보다 약간 높았다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제기된 질문과 관련된 정보를 제공하고 있지만, 일부 정보는 원문과 일치하지 않아서 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히 평균 점수에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.7762818575905638</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준 변환 점수 합의 평균은 424.05로, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았던 것을 확인하였습니다.
+이러한 상황에서는 작년의 결과를 참고할 수 있지만, 정확한 예측은 어렵습니다. 표준 변환 점수는 여러 요인에 따라 달라질 수 있기 때문에, 작년과 동일한 점수가 최종적으로 적용되는 것은 불가능하지 않습니다.
+만약 447점이 최종 평균으로 인정된다면, 작년의 결과와 유사하게 평가될 가능성이 있습니다. 그러나 이는 확실한 보장은 아니며, 다양한 요인에 따라 점수가 변동될 수 있습니다.
+따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 신소재공학부의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 427.00이라고 언급되었으나, 원본 텍스트에서는 평균이 378.15로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에 포함되어 있지 않아 신뢰성을 떨어뜨립니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 점수와 표준 편차에 대한 정보가 상충합니다. 이러한 불일치는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부 일반학생전형에 지원 가능성을 평가하기 위한 요소들을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 데이터와는 일치하지 않기 때문에 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있으나, 각 요소 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 평균 점수와 경쟁률에 대한 설명이 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 특히 평균 점수와 표준 편차에 대한 잘못된 정보는 신뢰성을 크게 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다. 관련성은 높지만, 다른 차원에서의 부족함이 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 제공된 데이터와의 불일치로 인해 의미적으로 적절하지 않은 부분이 있습니다. 특히, 잘못된 수치가 포함되어 있어 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 전반적인 명확성은 유지되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.5944050761592522</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 변환되면, 신소재공학부 일반학생전형에 지원 가능성을 확인하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **평균 점수와 표준 편차**: 제공된 데이터에서 신소재공학부의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 427.00이고, 표준 편차는 11.25입니다. 이 값들은 전체 지원자의 성적 분포를 나타내며, 4.3 등급대가 어느 정도의 점수에 해당하는지 이해하는데 도움이 됩니다.
+2. **경쟁률**: 신소재공학부의 모집 인원은 최대선발 가능인원 3 이내이며, 지원 인원은 10명입니다. 따라서 경쟁률은 약 3.33입니다. 이는 충분히 낮아서, 평균 점수보다 약간 높은 점수가 있으면 충원 가능성을 높일 수 있습니다.
+3. **개별 지원자의 성적**: 4.1~4.2 등급대의 점수가 신소재공학부의 평균 점수와 비교해보면, 약간 낮은 편입니다. 그러나 표준 편차를 고려하면, 이 점수가 충분히 높아서 경쟁력을 갖추는 것은 가능합니다.
+따라서, 4.1~4.2 등급대의 성적이면 신소재공학부 일반학생전형에 지원할 수 있지만, 확실한 결과를 얻기 위해서는 다음과 같은 절차를 따르는 것이 좋습니다:
+- **성적 변환 확인**: 제공된 데이터와 자신의 실제 성적을 비교하여 정확한 변환 점수를 확인합니다.
+- **모집인원과 지원인원**: 모집 인원과 지원 인원을 고려하여 경쟁률을 재계산합니다.
+- **추천서 및 자기소개서 작성**: 서류 심사에 중요한 요소로 작용하므로, 잘 준비해야 합니다.
+이러한 절차를 거쳐 신소재공학부 일반학생전형에 지원하면 충분히 가능성을 높일 수 있습니다. 자세한 정보는 대학 입시 홈페이지나 관계자에게 문의하시는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준이 공개되지 않았다고 언급하고 있지만, 원본 텍스트에는 구체적인 성적 정보가 명시되어 있습니다. 따라서 사실성과 관련하여 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 무시하고 일반적인 성적 요구 사항에 대한 추측을 제시하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적 기준에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보를 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트의 구체적인 성적 정보를 반영하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 생략하고 일반적인 성적 기준에 대한 추측을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 구체적인 내용을 반영하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트의 구체적인 정보가 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.8066986080766891</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반 학생 전형에 대한 정확한 성적 기준은 공개되지 않았습니다. 하지만 대체로 수능 성적이 높은 점수를 요구하는 경향이 있습니다. 예를 들어, 국어, 수학, 영어 등 주요 과목에서 90점 이상의 성적을 보유하고 있다면 좋은 기회가 될 수 있을 것입니다.
+더 자세한 정보와 최신 성적 기준을 확인하려면 동의대학교 입학처 웹사이트를 참조하거나 합격자 명단을 확인하는 것이 좋습니다. 또한, 해당 전형에 대한 세부 안내는 입학 안내 홈페이지에서 확인할 수 있습니다.
+만약 더 자세한 정보가 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적이 영화학과와 패션디자인학과의 평균보다 높다고 언급하고 있지만, 원본 텍스트에서는 5.27 성적이 충원 합격 가능한 학과 목록을 제공하고 있습니다. 그러나 영화학과와 패션디자인학과가 충원 합격 가능 학과 목록에 포함되지 않기 때문에 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영화학과와 패션디자인학과에 대한 언급이 원본 텍스트의 충원 합격 가능 학과 목록과 일치하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 질문에 적절하게 답변하고 있으며, 관련된 학과의 평균 점수를 제공하고 있습니다. 그러나 원본 텍스트의 전체적인 맥락을 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 충원 합격 가능 학과 목록과 일치하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 평균적이며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6407817810301947</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 4개 영역 등급 점수를 가지고 ICT융합공과대학 영화학과나 예술디자인체육대학 패션디자인학과에 지원할 경우, 평균 점수가 각각 다음과 같습니다:
+- 영화학과: 5.04
+- 패션디자인학과: 4.46
+5.27이라는 등급은 두 학과 모두의 평균보다 높습니다. 따라서 이 성적으로는 추합 가능할 것으로 보입니다.
+하지만, 최종 결정은 입시 관련 자세한 정보를 확인하거나 대학 입학처에 문의하는 것이 가장 정확합니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 합격 가능성이 높다는 주장을 반박하는 내용이 포함되어 있어 사실관계에 대한 혼란을 초래합니다. 원본 텍스트는 4.2라는 성적이 평균보다 높다고 명시하고 있으나, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주장을 반박하는 내용을 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 4.2라는 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 합격 가능성이 낮다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 합격 가능성에 대한 긍정적인 평가를 부정하는 내용이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 이유를 제시하고 있지만, 원본 텍스트와의 연결이 명확하지 않아 논리적 흐름이 다소 부족합니다. 원본 텍스트의 주장을 반박하는 방식으로 전개되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 데이터와 관련된 정보를 포함하고 있지만, 4.2라는 성적에 대한 해석이 원본 텍스트와 상충하여 정확성이 떨어집니다. 원본 텍스트의 주장을 왜곡하는 방식으로 해석되고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 저하됩니다. 관련성은 높지만, 주제의 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 상충하는 내용을 포함하고 있어 의미적으로 적절하지 않은 부분이 있습니다. 원본 텍스트의 긍정적인 해석을 부정하는 방식으로 전개되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장 구성으로 인해 약간의 혼란을 초래할 수 있습니다. 그러나 전반적으로 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.6110401325103876</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 동의대학교 소프트웨어공학부에 지원하는 경우의 합격 가능성을 평가하는데 어려움이 있습니다. 이는 다음과 같은 이유들 때문입니다:
+1. **모집 단위별 경쟁률과 지원 인원**: 동의대학교 소프트웨어공학부의 모집 인원은 5명이고, 지원 인원은 22명으로, 경쟁률이 높습니다 (3.67). 이는 합격 가능성에 부정적인 영향을 미칠 수 있습니다.
+2. **성적 평균과 표준 편차**: 제공된 데이터에서 소프트웨어공학부의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77이고, 표준 편차는 17.29입니다. 이 점수와 비교해보면 4.2라는 성적은 상대적으로 낮습니다.
+3. **성적 분포**: 표준 편차가 높다는 것은 성적이 일정 범위 내에서 분산되어 있다는 것을 의미합니다. 따라서 평균보다는 약간 낮은 점수도 합격 가능한 경우가 있을 수 있지만, 확률이 낮을 것입니다.
+따라서 4.2라는 점수로 동의대학교 소프트웨어공학부에 지원하는 것은 가능하지만, 합격 가능성은 매우 낮습니다. 성적과 경쟁률 등을 고려할 때 다른 대학이나 전형을 검토해보는 것이 좋을 수 있습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 관계자에게 문의하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 화학환경공학부의 학생부종합 평가방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적 3.92에 대한 합격 가능성에 대한 정보는 잘못 해석하고 있습니다. 원본 텍스트는 3.92의 성적이 합격 가능성이 높다고 언급하고 있으나, 생성된 응답은 이를 부정하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 3.92의 성적이 합격 가능성이 높다고 하지만, 생성된 응답은 이 성적만으로는 지원할 수 없다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평가 방법에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문인 3.92 성적의 합격 가능성에 대한 직접적인 답변은 부족합니다. 그러나 관련된 정보를 제공하므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 관계에서 일관성이 떨어지므로 완벽한 점수를 주기에는 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있습니다. 3.92의 성적이 합격 가능성이 높다는 원본의 주장을 부정하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮다고 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다. 따라서 적절성 점수는 중간 정도로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관계에서 혼란을 줄 수 있는 부분이 있어 완벽한 점수를 주기에는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.667993730047827</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도에 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 경우 학생부종합 평가방법이 적용됩니다. 따라서 정시 성적 산출로 3.92이라는 점수만으로는 일반학생전형에 지원할 수 없습니다.
+2024학년도 화학환경공학부의 학생부종합 평가는 다음과 같습니다:
+- 반영과목: 전 모집단위(한의예과 제외) 12과목
+- 성적 반영 방법: 진로선택과목 성적반영 수 A: 1등급 B: 3등급 C:5등급
+따라서 정시 성적 산출로는 지원이 불가능하며, 학생부종합 평가를 통해 지원해야 합니다. 자세한 내용은 대학 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 점수와 비교할 때 4.25라는 점수가 평균보다 낮다고 언급하고 있습니다. 이는 원본 텍스트의 내용과 상충하며, 원본에서는 4.25가 평균보다 높다고 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되지 않습니다. 원본에서는 4.25가 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 4.25가 평균보다 낮다고 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 4.25가 평균보다 낮다고 언급한 부분은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.6380346890184178</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>4.25라는 점수를 가지고 동의대학교 화학환경공학부(화학공학과, 환경공학과, 응용화학과)에 정시로 지원하려는 경우, 수능 4개 영역의 평균 점수가 4.46이고 표준 편차가 0.31인 것을 고려해야 합니다.
+현재 제공된 정보만으로는 확정적인 결론을 내리기 어렵습니다. 하지만 4.25라는 점수는 평균보다 약간 낮은 수치입니다. 이 경우, 지원자의 성적과 경쟁률 등을 종합적으로 고려해야 합니다.
+특히, 동의대학교 화학환경공학부의 경쟁률이 높아서, 4.25라는 점수로 합격할 확률은 낮을 수 있습니다. 하지만 이는 단순 예측일 뿐 실제 합격 여부는 지원자의 전체 성적과 면접 등 다양한 요소에 따라 결정됩니다.
+더 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)에서 최신 정보와 더 자세한 설명을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2라는 점수가 평균 성적과 비교하여 상대적으로 낮다고 언급하고 있지만, 실제로는 4.2가 평균 성적(286.77)과는 다른 기준으로 평가되어야 합니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 일부 일관성을 유지하고 있지만, 평균 성적과 비교하는 방식에서 혼란을 초래할 수 있는 요소가 있습니다. 특히, 4.2라는 점수가 어떤 기준으로 평가되는지 명확하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 점수 비교 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제공된 정보는 일부 정확하지만, 4.2라는 점수의 의미와 관련하여 잘못된 해석이 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 응답이 적절하게 평가되었지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 부분에서 혼란을 줄 수 있는 요소가 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.6287819486139455</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 평균이 286.77이고 표준 편차가 17.29인 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합'의 경우, 비교해보면 상대적으로 좋은 성적입니다.
+영화학과의 평균 '국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합'은 404.43이고, 표준 편차는 27.09입니다. 이에 비해 4.2라는 점수는 상대적으로 낮습니다.
+하지만 정시 모집의 경우, 단순히 점수만으로 합격 여부를 판단하기보다는 경쟁률과 충원 인원 등을 고려해야 합니다. 현재 지원 인원이 11명이고 모집 인원이 5명이라는 점을 감안하면, 경쟁률은 2.20입니다.
+따라서, 4.2라는 점수는 평균보다 낮지만, 경쟁률이 높지 않아서 합격 가능성은 있습니다. 하지만 확실한 것은 아니므로, 최종 합격 여부는 입학처에서 발표하는 공식 결과를 기다려야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.6987529159361833</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 입학사정관 2인이 평가위원으로 참여하여 수험생을 대상으로 개별적이고 정성적인 평가를 진행합니다.
+블라인드 면접 방식에 따라 개인 신상(수험번호, 성명, 출신고교, 부모 직업 등) 노출이 금지되며, 교복 착용도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
